--- a/Module 32 - Consolidated Financial Statements Accounting Requirements.xlsx
+++ b/Module 32 - Consolidated Financial Statements Accounting Requirements.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="474" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A118AD10-1016-47CB-9F18-7492C3498DC0}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4740" windowWidth="15360" windowHeight="10530" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="5040" yWindow="5040" windowWidth="12420" windowHeight="11385" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1711,10 +1711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,10 +1761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2313,6 +2315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410962E-6501-407A-AA28-2AFE0133A556}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2497,6 +2500,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C083348-6073-4DCD-86CD-359FA577FEE8}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
@@ -2619,6 +2623,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C472F892-EA46-4E3B-9723-040AD5C74BA6}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -2864,10 +2869,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAF0FE-A834-4732-A905-DA5FF90BE218}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N19" sqref="M19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
